--- a/data_group/random_effects_prec.xlsx
+++ b/data_group/random_effects_prec.xlsx
@@ -391,19 +391,19 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-148.9322086870455</v>
+        <v>-148.8976082334803</v>
       </c>
       <c r="B2">
         <v>2001</v>
       </c>
       <c r="C2">
-        <v>13.64529024588557</v>
+        <v>13.7883235472003</v>
       </c>
       <c r="D2">
-        <v>-175.6769775689813</v>
+        <v>-175.9227223859929</v>
       </c>
       <c r="E2">
-        <v>-122.1874398051098</v>
+        <v>-121.8724940809677</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -413,19 +413,19 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>-59.49752632172861</v>
+        <v>-59.5739884094147</v>
       </c>
       <c r="B3">
         <v>2002</v>
       </c>
       <c r="C3">
-        <v>13.64529024588557</v>
+        <v>13.7883235472003</v>
       </c>
       <c r="D3">
-        <v>-86.24229520366434</v>
+        <v>-86.59910256192728</v>
       </c>
       <c r="E3">
-        <v>-32.75275743979289</v>
+        <v>-32.54887425690211</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -435,19 +435,19 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>-211.6155916775162</v>
+        <v>-212.6229844331299</v>
       </c>
       <c r="B4">
         <v>2003</v>
       </c>
       <c r="C4">
-        <v>13.64529024588557</v>
+        <v>13.7883235472003</v>
       </c>
       <c r="D4">
-        <v>-238.360360559452</v>
+        <v>-239.6480985856425</v>
       </c>
       <c r="E4">
-        <v>-184.8708227955805</v>
+        <v>-185.5978702806173</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -457,19 +457,19 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>-87.92853242102765</v>
+        <v>-88.99454564354632</v>
       </c>
       <c r="B5">
         <v>2004</v>
       </c>
       <c r="C5">
-        <v>13.64529024588557</v>
+        <v>13.7883235472003</v>
       </c>
       <c r="D5">
-        <v>-114.6733013029634</v>
+        <v>-116.0196597960589</v>
       </c>
       <c r="E5">
-        <v>-61.18376353909193</v>
+        <v>-61.96943149103373</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -479,19 +479,19 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>87.54590522633465</v>
+        <v>87.20990830324271</v>
       </c>
       <c r="B6">
         <v>2005</v>
       </c>
       <c r="C6">
-        <v>13.64529024588557</v>
+        <v>13.7883235472003</v>
       </c>
       <c r="D6">
-        <v>60.80113634439893</v>
+        <v>60.18479415073013</v>
       </c>
       <c r="E6">
-        <v>114.2906741082704</v>
+        <v>114.2350224557553</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -501,19 +501,19 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>146.2460854645902</v>
+        <v>145.9027055282348</v>
       </c>
       <c r="B7">
         <v>2006</v>
       </c>
       <c r="C7">
-        <v>13.64529024588557</v>
+        <v>13.7883235472003</v>
       </c>
       <c r="D7">
-        <v>119.5013165826545</v>
+        <v>118.8775913757222</v>
       </c>
       <c r="E7">
-        <v>172.9908543465259</v>
+        <v>172.9278196807474</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -523,19 +523,19 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>38.6556815653666</v>
+        <v>37.50996635550108</v>
       </c>
       <c r="B8">
         <v>2007</v>
       </c>
       <c r="C8">
-        <v>13.64529024588557</v>
+        <v>13.7883235472003</v>
       </c>
       <c r="D8">
-        <v>11.91091268343087</v>
+        <v>10.48485220298849</v>
       </c>
       <c r="E8">
-        <v>65.40045044730232</v>
+        <v>64.53508050801366</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -545,19 +545,19 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>300.3481256484098</v>
+        <v>298.6188164360827</v>
       </c>
       <c r="B9">
         <v>2008</v>
       </c>
       <c r="C9">
-        <v>11.82450255876859</v>
+        <v>11.94860670666244</v>
       </c>
       <c r="D9">
-        <v>277.1721006332234</v>
+        <v>275.1995472910243</v>
       </c>
       <c r="E9">
-        <v>323.5241506635962</v>
+        <v>322.038085581141</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -567,19 +567,19 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>-78.15534753161462</v>
+        <v>-77.76660611337853</v>
       </c>
       <c r="B10">
         <v>2009</v>
       </c>
       <c r="C10">
-        <v>11.82450255876859</v>
+        <v>11.94860670666244</v>
       </c>
       <c r="D10">
-        <v>-101.3313725468011</v>
+        <v>-101.1858752584369</v>
       </c>
       <c r="E10">
-        <v>-54.97932251642818</v>
+        <v>-54.34733696832014</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -589,19 +589,19 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>-58.28397549858133</v>
+        <v>-58.13122881210523</v>
       </c>
       <c r="B11">
         <v>2010</v>
       </c>
       <c r="C11">
-        <v>11.82450255876859</v>
+        <v>11.94860670666244</v>
       </c>
       <c r="D11">
-        <v>-81.46000051376777</v>
+        <v>-81.55049795716363</v>
       </c>
       <c r="E11">
-        <v>-35.10795048339488</v>
+        <v>-34.71195966704684</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -611,19 +611,19 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>149.7370086140426</v>
+        <v>148.6441028796315</v>
       </c>
       <c r="B12">
         <v>2011</v>
       </c>
       <c r="C12">
-        <v>11.97456736160962</v>
+        <v>12.100234287413</v>
       </c>
       <c r="D12">
-        <v>126.2668565852877</v>
+        <v>124.927643676302</v>
       </c>
       <c r="E12">
-        <v>173.2071606427974</v>
+        <v>172.360562082961</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -633,19 +633,19 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>-16.01910809149058</v>
+        <v>-15.3480350319112</v>
       </c>
       <c r="B13">
         <v>2012</v>
       </c>
       <c r="C13">
-        <v>11.97456736160962</v>
+        <v>12.100234287413</v>
       </c>
       <c r="D13">
-        <v>-39.48926012024543</v>
+        <v>-39.06449423524069</v>
       </c>
       <c r="E13">
-        <v>7.451043937264274</v>
+        <v>8.36842417141829</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -655,19 +655,19 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>239.9909379245176</v>
+        <v>240.0453561425952</v>
       </c>
       <c r="B14">
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>11.97456736160962</v>
+        <v>12.100234287413</v>
       </c>
       <c r="D14">
-        <v>216.5207858957628</v>
+        <v>216.3288969392657</v>
       </c>
       <c r="E14">
-        <v>263.4610899532724</v>
+        <v>263.7618153459246</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -677,19 +677,19 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>-76.1056845150962</v>
+        <v>-76.02689927913393</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>12.13049454362908</v>
+        <v>12.25778480814507</v>
       </c>
       <c r="D15">
-        <v>-99.88145382060921</v>
+        <v>-100.0521575030983</v>
       </c>
       <c r="E15">
-        <v>-52.3299152095832</v>
+        <v>-52.00164105516959</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -699,19 +699,19 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>-527.145889229392</v>
+        <v>-526.6123996556285</v>
       </c>
       <c r="B16">
         <v>2015</v>
       </c>
       <c r="C16">
-        <v>12.13049454362908</v>
+        <v>12.25778480814507</v>
       </c>
       <c r="D16">
-        <v>-550.921658534905</v>
+        <v>-550.6376578795928</v>
       </c>
       <c r="E16">
-        <v>-503.370119923879</v>
+        <v>-502.5871414316641</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -721,19 +721,19 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>30.40405376934224</v>
+        <v>30.2688273495818</v>
       </c>
       <c r="B17">
         <v>2016</v>
       </c>
       <c r="C17">
-        <v>11.97456736160962</v>
+        <v>12.100234287413</v>
       </c>
       <c r="D17">
-        <v>6.933901740587384</v>
+        <v>6.552368146252313</v>
       </c>
       <c r="E17">
-        <v>53.87420579809709</v>
+        <v>53.98528655291129</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -743,19 +743,19 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>-1.370134446198504</v>
+        <v>-0.403093817388948</v>
       </c>
       <c r="B18">
         <v>2017</v>
       </c>
       <c r="C18">
-        <v>11.82450255876859</v>
+        <v>11.94860670666244</v>
       </c>
       <c r="D18">
-        <v>-24.54615946138495</v>
+        <v>-23.82236296244734</v>
       </c>
       <c r="E18">
-        <v>21.80589056898794</v>
+        <v>23.01617532766944</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -765,19 +765,19 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>-86.74560209723296</v>
+        <v>-86.4456865750527</v>
       </c>
       <c r="B19">
         <v>2018</v>
       </c>
       <c r="C19">
-        <v>11.82450255876859</v>
+        <v>11.94860670666244</v>
       </c>
       <c r="D19">
-        <v>-109.9216271124194</v>
+        <v>-109.8649557201111</v>
       </c>
       <c r="E19">
-        <v>-63.56957708204651</v>
+        <v>-63.02641742999431</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -787,19 +787,19 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>105.7919099481456</v>
+        <v>106.325785829859</v>
       </c>
       <c r="B20">
         <v>2019</v>
       </c>
       <c r="C20">
-        <v>11.82450255876859</v>
+        <v>11.94860670666244</v>
       </c>
       <c r="D20">
-        <v>82.61588493295918</v>
+        <v>82.90651668480059</v>
       </c>
       <c r="E20">
-        <v>128.9679349633321</v>
+        <v>129.7450549749174</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -809,19 +809,19 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>-121.8638008028478</v>
+        <v>-120.9170179628163</v>
       </c>
       <c r="B21">
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>11.82450255876859</v>
+        <v>11.94860670666244</v>
       </c>
       <c r="D21">
-        <v>-145.0398258180343</v>
+        <v>-144.3362871078747</v>
       </c>
       <c r="E21">
-        <v>-98.68777578766139</v>
+        <v>-97.49774881775792</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>374.9436931694084</v>
+        <v>377.2146251471389</v>
       </c>
       <c r="B22">
         <v>2021</v>
       </c>
       <c r="C22">
-        <v>11.82450255876859</v>
+        <v>11.94860670666244</v>
       </c>
       <c r="D22">
-        <v>351.767668154222</v>
+        <v>353.7953560020805</v>
       </c>
       <c r="E22">
-        <v>398.1197181845948</v>
+        <v>400.6338942921972</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -853,19 +853,19 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>-6.234721537355142</v>
+        <v>-9.705753890255389</v>
       </c>
       <c r="B23">
         <v>2001</v>
       </c>
       <c r="C23">
-        <v>13.56980582360734</v>
+        <v>13.9395815864261</v>
       </c>
       <c r="D23">
-        <v>-32.83154095162553</v>
+        <v>-37.02733379965053</v>
       </c>
       <c r="E23">
-        <v>20.36209787691524</v>
+        <v>17.61582601913976</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -875,19 +875,19 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>-198.0996839543102</v>
+        <v>-196.7708105666563</v>
       </c>
       <c r="B24">
         <v>2002</v>
       </c>
       <c r="C24">
-        <v>13.56980582360734</v>
+        <v>13.9395815864261</v>
       </c>
       <c r="D24">
-        <v>-224.6965033685806</v>
+        <v>-224.0923904760514</v>
       </c>
       <c r="E24">
-        <v>-171.5028645400398</v>
+        <v>-169.4492306572611</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -897,19 +897,19 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>-159.1767855641943</v>
+        <v>-165.1487914182792</v>
       </c>
       <c r="B25">
         <v>2003</v>
       </c>
       <c r="C25">
-        <v>13.56980582360734</v>
+        <v>13.9395815864261</v>
       </c>
       <c r="D25">
-        <v>-185.7736049784647</v>
+        <v>-192.4703713276743</v>
       </c>
       <c r="E25">
-        <v>-132.579966149924</v>
+        <v>-137.827211508884</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -919,19 +919,19 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>-123.0254429790225</v>
+        <v>-122.9078327681447</v>
       </c>
       <c r="B26">
         <v>2004</v>
       </c>
       <c r="C26">
-        <v>13.56980582360734</v>
+        <v>13.9395815864261</v>
       </c>
       <c r="D26">
-        <v>-149.6222623932929</v>
+        <v>-150.2294126775398</v>
       </c>
       <c r="E26">
-        <v>-96.42862356475212</v>
+        <v>-95.58625285874956</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -941,19 +941,19 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>-106.4479200578174</v>
+        <v>-103.7558675762609</v>
       </c>
       <c r="B27">
         <v>2005</v>
       </c>
       <c r="C27">
-        <v>13.56980582360734</v>
+        <v>13.9395815864261</v>
       </c>
       <c r="D27">
-        <v>-133.0447394720878</v>
+        <v>-131.0774474856561</v>
       </c>
       <c r="E27">
-        <v>-79.85110064354701</v>
+        <v>-76.43428766686574</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -963,19 +963,19 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>40.12096538034309</v>
+        <v>41.77791628217359</v>
       </c>
       <c r="B28">
         <v>2006</v>
       </c>
       <c r="C28">
-        <v>13.56980582360734</v>
+        <v>13.9395815864261</v>
       </c>
       <c r="D28">
-        <v>13.52414596607271</v>
+        <v>14.45633637277844</v>
       </c>
       <c r="E28">
-        <v>66.71778479461348</v>
+        <v>69.09949619156873</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -985,19 +985,19 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>-145.0470443467466</v>
+        <v>-140.1184199698558</v>
       </c>
       <c r="B29">
         <v>2007</v>
       </c>
       <c r="C29">
-        <v>13.56980582360734</v>
+        <v>13.9395815864261</v>
       </c>
       <c r="D29">
-        <v>-171.643863761017</v>
+        <v>-167.4399998792509</v>
       </c>
       <c r="E29">
-        <v>-118.4502249324762</v>
+        <v>-112.7968400604606</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1007,19 +1007,19 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>220.5970368208105</v>
+        <v>220.6909587099285</v>
       </c>
       <c r="B30">
         <v>2008</v>
       </c>
       <c r="C30">
-        <v>11.75930295826689</v>
+        <v>12.08023702218036</v>
       </c>
       <c r="D30">
-        <v>197.5488030226074</v>
+        <v>197.013694146455</v>
       </c>
       <c r="E30">
-        <v>243.6452706190136</v>
+        <v>244.368223273402</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1029,19 +1029,19 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>290.4041814843239</v>
+        <v>287.6637594541487</v>
       </c>
       <c r="B31">
         <v>2009</v>
       </c>
       <c r="C31">
-        <v>11.75930295826689</v>
+        <v>12.08023702218036</v>
       </c>
       <c r="D31">
-        <v>267.3559476861208</v>
+        <v>263.9864948906752</v>
       </c>
       <c r="E31">
-        <v>313.452415282527</v>
+        <v>311.3410240176222</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1051,19 +1051,19 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>-223.8593647916576</v>
+        <v>-219.2645289251976</v>
       </c>
       <c r="B32">
         <v>2010</v>
       </c>
       <c r="C32">
-        <v>11.75930295826689</v>
+        <v>12.08023702218036</v>
       </c>
       <c r="D32">
-        <v>-246.9075985898606</v>
+        <v>-242.9417934886711</v>
       </c>
       <c r="E32">
-        <v>-200.8111309934545</v>
+        <v>-195.5872643617241</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1073,19 +1073,19 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>138.3638681297739</v>
+        <v>139.4995827105739</v>
       </c>
       <c r="B33">
         <v>2011</v>
       </c>
       <c r="C33">
-        <v>11.75930295826689</v>
+        <v>12.08023702218036</v>
       </c>
       <c r="D33">
-        <v>115.3156343315708</v>
+        <v>115.8223181471004</v>
       </c>
       <c r="E33">
-        <v>161.4121019279769</v>
+        <v>163.1768472740474</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1095,19 +1095,19 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>-335.1787174311316</v>
+        <v>-332.2824217347775</v>
       </c>
       <c r="B34">
         <v>2012</v>
       </c>
       <c r="C34">
-        <v>11.75930295826689</v>
+        <v>12.08023702218036</v>
       </c>
       <c r="D34">
-        <v>-358.2269512293347</v>
+        <v>-355.959686298251</v>
       </c>
       <c r="E34">
-        <v>-312.1304836329285</v>
+        <v>-308.605157171304</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1117,19 +1117,19 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>123.6380400502108</v>
+        <v>127.0770434318279</v>
       </c>
       <c r="B35">
         <v>2013</v>
       </c>
       <c r="C35">
-        <v>11.75930295826689</v>
+        <v>12.08023702218036</v>
       </c>
       <c r="D35">
-        <v>100.5898062520077</v>
+        <v>103.3997788683544</v>
       </c>
       <c r="E35">
-        <v>146.6862738484139</v>
+        <v>150.7543079953014</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1139,19 +1139,19 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>165.5427938429974</v>
+        <v>160.6431691716803</v>
       </c>
       <c r="B36">
         <v>2014</v>
       </c>
       <c r="C36">
-        <v>11.75930295826689</v>
+        <v>12.08023702218036</v>
       </c>
       <c r="D36">
-        <v>142.4945600447944</v>
+        <v>136.9659046082068</v>
       </c>
       <c r="E36">
-        <v>188.5910276412005</v>
+        <v>184.3204337351538</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1161,19 +1161,19 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>-280.4639209390142</v>
+        <v>-282.0797563942892</v>
       </c>
       <c r="B37">
         <v>2015</v>
       </c>
       <c r="C37">
-        <v>11.75930295826689</v>
+        <v>12.08023702218036</v>
       </c>
       <c r="D37">
-        <v>-303.5121547372173</v>
+        <v>-305.7570209577627</v>
       </c>
       <c r="E37">
-        <v>-257.4156871408111</v>
+        <v>-258.4024918308157</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1183,19 +1183,19 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>-176.5515248147523</v>
+        <v>-176.2976104823476</v>
       </c>
       <c r="B38">
         <v>2016</v>
       </c>
       <c r="C38">
-        <v>11.75930295826689</v>
+        <v>12.08023702218036</v>
       </c>
       <c r="D38">
-        <v>-199.5997586129554</v>
+        <v>-199.9748750458211</v>
       </c>
       <c r="E38">
-        <v>-153.5032910165492</v>
+        <v>-152.6203459188741</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1205,19 +1205,19 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>202.4979656174958</v>
+        <v>203.3150338104287</v>
       </c>
       <c r="B39">
         <v>2017</v>
       </c>
       <c r="C39">
-        <v>11.75930295826689</v>
+        <v>12.08023702218036</v>
       </c>
       <c r="D39">
-        <v>179.4497318192927</v>
+        <v>179.6377692469552</v>
       </c>
       <c r="E39">
-        <v>225.5461994156989</v>
+        <v>226.9922983739022</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1227,19 +1227,19 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>138.0288787163488</v>
+        <v>140.6953999201822</v>
       </c>
       <c r="B40">
         <v>2018</v>
       </c>
       <c r="C40">
-        <v>11.75930295826689</v>
+        <v>12.08023702218036</v>
       </c>
       <c r="D40">
-        <v>114.9806449181457</v>
+        <v>117.0181353567087</v>
       </c>
       <c r="E40">
-        <v>161.0771125145519</v>
+        <v>164.3726644836557</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1249,19 +1249,19 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>60.0617891435671</v>
+        <v>57.48602616717181</v>
       </c>
       <c r="B41">
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>11.75930295826689</v>
+        <v>12.08023702218036</v>
       </c>
       <c r="D41">
-        <v>37.013555345364</v>
+        <v>33.80876160369831</v>
       </c>
       <c r="E41">
-        <v>83.1100229417702</v>
+        <v>81.16329073064531</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1271,19 +1271,19 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>145.3157671387314</v>
+        <v>139.259186275705</v>
       </c>
       <c r="B42">
         <v>2020</v>
       </c>
       <c r="C42">
-        <v>11.75930295826689</v>
+        <v>12.08023702218036</v>
       </c>
       <c r="D42">
-        <v>122.2675333405283</v>
+        <v>115.5819217122315</v>
       </c>
       <c r="E42">
-        <v>168.3640009369345</v>
+        <v>162.9364508391785</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1293,19 +1293,19 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>229.5138400843484</v>
+        <v>230.2237177980462</v>
       </c>
       <c r="B43">
         <v>2021</v>
       </c>
       <c r="C43">
-        <v>11.75930295826689</v>
+        <v>12.08023702218036</v>
       </c>
       <c r="D43">
-        <v>206.4656062861453</v>
+        <v>206.5464532345727</v>
       </c>
       <c r="E43">
-        <v>252.5620738825515</v>
+        <v>253.9009823615197</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1315,19 +1315,19 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>-41.53259269168758</v>
+        <v>-40.06495714393508</v>
       </c>
       <c r="B44">
         <v>2001</v>
       </c>
       <c r="C44">
-        <v>9.004712376592172</v>
+        <v>9.135021270402207</v>
       </c>
       <c r="D44">
-        <v>-59.18182894980824</v>
+        <v>-57.9695988339234</v>
       </c>
       <c r="E44">
-        <v>-23.88335643356693</v>
+        <v>-22.16031545394675</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1337,19 +1337,19 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>-213.9846412635964</v>
+        <v>-212.665534588296</v>
       </c>
       <c r="B45">
         <v>2002</v>
       </c>
       <c r="C45">
-        <v>9.004712376592172</v>
+        <v>9.135021270402207</v>
       </c>
       <c r="D45">
-        <v>-231.633877521717</v>
+        <v>-230.5701762782844</v>
       </c>
       <c r="E45">
-        <v>-196.3354050054757</v>
+        <v>-194.7608928983077</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1359,19 +1359,19 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>-17.01932090871147</v>
+        <v>-15.39210621082579</v>
       </c>
       <c r="B46">
         <v>2003</v>
       </c>
       <c r="C46">
-        <v>9.004712376592172</v>
+        <v>9.135021270402207</v>
       </c>
       <c r="D46">
-        <v>-34.66855716683212</v>
+        <v>-33.29674790081412</v>
       </c>
       <c r="E46">
-        <v>0.6299153494091883</v>
+        <v>2.512535479162537</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1381,19 +1381,19 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>-13.01806286768406</v>
+        <v>-13.1539899911068</v>
       </c>
       <c r="B47">
         <v>2004</v>
       </c>
       <c r="C47">
-        <v>9.004712376592172</v>
+        <v>9.135021270402207</v>
       </c>
       <c r="D47">
-        <v>-30.66729912580471</v>
+        <v>-31.05863168109513</v>
       </c>
       <c r="E47">
-        <v>4.631173390436597</v>
+        <v>4.75065169888153</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1403,19 +1403,19 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>-81.01623518208159</v>
+        <v>-81.93735282344753</v>
       </c>
       <c r="B48">
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>9.004712376592172</v>
+        <v>9.135021270402207</v>
       </c>
       <c r="D48">
-        <v>-98.66547144020224</v>
+        <v>-99.84199451343585</v>
       </c>
       <c r="E48">
-        <v>-63.36699892396094</v>
+        <v>-64.0327111334592</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1425,19 +1425,19 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>-39.53363045151223</v>
+        <v>-41.57462813149207</v>
       </c>
       <c r="B49">
         <v>2006</v>
       </c>
       <c r="C49">
-        <v>9.004712376592172</v>
+        <v>9.135021270402207</v>
       </c>
       <c r="D49">
-        <v>-57.18286670963289</v>
+        <v>-59.4792698214804</v>
       </c>
       <c r="E49">
-        <v>-21.88439419339158</v>
+        <v>-23.66998644150374</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1447,19 +1447,19 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>-186.2400555938293</v>
+        <v>-184.6115435397018</v>
       </c>
       <c r="B50">
         <v>2007</v>
       </c>
       <c r="C50">
-        <v>9.004712376592172</v>
+        <v>9.135021270402207</v>
       </c>
       <c r="D50">
-        <v>-203.8892918519499</v>
+        <v>-202.5161852296901</v>
       </c>
       <c r="E50">
-        <v>-168.5908193357086</v>
+        <v>-166.7069018497135</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1469,19 +1469,19 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>1.55282162470806</v>
+        <v>2.223340738073641</v>
       </c>
       <c r="B51">
         <v>2008</v>
       </c>
       <c r="C51">
-        <v>7.802121874098042</v>
+        <v>7.915154224402857</v>
       </c>
       <c r="D51">
-        <v>-13.7393372485241</v>
+        <v>-13.29036154175596</v>
       </c>
       <c r="E51">
-        <v>16.84498049794022</v>
+        <v>17.73704301790324</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1491,19 +1491,19 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>75.63899108826492</v>
+        <v>75.2312107757738</v>
       </c>
       <c r="B52">
         <v>2009</v>
       </c>
       <c r="C52">
-        <v>7.802121874098042</v>
+        <v>7.915154224402857</v>
       </c>
       <c r="D52">
-        <v>60.34683221503276</v>
+        <v>59.7175084959442</v>
       </c>
       <c r="E52">
-        <v>90.93114996149708</v>
+        <v>90.7449130556034</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1513,19 +1513,19 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>-203.8749554122544</v>
+        <v>-204.2118172732901</v>
       </c>
       <c r="B53">
         <v>2010</v>
       </c>
       <c r="C53">
-        <v>7.802121874098042</v>
+        <v>7.915154224402857</v>
       </c>
       <c r="D53">
-        <v>-219.1671142854865</v>
+        <v>-219.7255195531197</v>
       </c>
       <c r="E53">
-        <v>-188.5827965390222</v>
+        <v>-188.6981149934605</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1535,19 +1535,19 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>8.552138872488142</v>
+        <v>7.095399247507753</v>
       </c>
       <c r="B54">
         <v>2011</v>
       </c>
       <c r="C54">
-        <v>7.802121874098042</v>
+        <v>7.915154224402857</v>
       </c>
       <c r="D54">
-        <v>-6.740020000744019</v>
+        <v>-8.418303032321845</v>
       </c>
       <c r="E54">
-        <v>23.8442977457203</v>
+        <v>22.60910152733735</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1557,19 +1557,19 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>-61.19305270600959</v>
+        <v>-60.46352869660132</v>
       </c>
       <c r="B55">
         <v>2012</v>
       </c>
       <c r="C55">
-        <v>7.802121874098042</v>
+        <v>7.915154224402857</v>
       </c>
       <c r="D55">
-        <v>-76.48521157924175</v>
+        <v>-75.97723097643092</v>
       </c>
       <c r="E55">
-        <v>-45.90089383277743</v>
+        <v>-44.94982641677173</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1579,19 +1579,19 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>260.2939861542133</v>
+        <v>262.3474850154806</v>
       </c>
       <c r="B56">
         <v>2013</v>
       </c>
       <c r="C56">
-        <v>7.802121874098042</v>
+        <v>7.915154224402857</v>
       </c>
       <c r="D56">
-        <v>245.0018272809812</v>
+        <v>246.833782735651</v>
       </c>
       <c r="E56">
-        <v>275.5861450274455</v>
+        <v>277.8611872953102</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1601,19 +1601,19 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>208.8260447369027</v>
+        <v>206.6232318040429</v>
       </c>
       <c r="B57">
         <v>2014</v>
       </c>
       <c r="C57">
-        <v>7.802121874098042</v>
+        <v>7.915154224402857</v>
       </c>
       <c r="D57">
-        <v>193.5338858636705</v>
+        <v>191.1095295242133</v>
       </c>
       <c r="E57">
-        <v>224.1182036101348</v>
+        <v>222.1369340838725</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1623,19 +1623,19 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>-189.2227132155315</v>
+        <v>-189.3867159111884</v>
       </c>
       <c r="B58">
         <v>2015</v>
       </c>
       <c r="C58">
-        <v>7.802121874098042</v>
+        <v>7.915154224402857</v>
       </c>
       <c r="D58">
-        <v>-204.5148720887637</v>
+        <v>-204.900418191018</v>
       </c>
       <c r="E58">
-        <v>-173.9305543422994</v>
+        <v>-173.8730136313588</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1645,19 +1645,19 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>-36.59569261632689</v>
+        <v>-37.84818156402236</v>
       </c>
       <c r="B59">
         <v>2016</v>
       </c>
       <c r="C59">
-        <v>7.802121874098042</v>
+        <v>7.915154224402857</v>
       </c>
       <c r="D59">
-        <v>-51.88785148955905</v>
+        <v>-53.36188384385196</v>
       </c>
       <c r="E59">
-        <v>-21.30353374309473</v>
+        <v>-22.33447928419276</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1667,19 +1667,19 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>70.10045647421303</v>
+        <v>70.49754107989021</v>
       </c>
       <c r="B60">
         <v>2017</v>
       </c>
       <c r="C60">
-        <v>7.802121874098042</v>
+        <v>7.915154224402857</v>
       </c>
       <c r="D60">
-        <v>54.80829760098087</v>
+        <v>54.98383880006061</v>
       </c>
       <c r="E60">
-        <v>85.3926153474452</v>
+        <v>86.01124335971981</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1689,19 +1689,19 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>257.2926202782159</v>
+        <v>254.9078429415928</v>
       </c>
       <c r="B61">
         <v>2018</v>
       </c>
       <c r="C61">
-        <v>7.802121874098042</v>
+        <v>7.915154224402857</v>
       </c>
       <c r="D61">
-        <v>242.0004614049838</v>
+        <v>239.3941406617632</v>
       </c>
       <c r="E61">
-        <v>272.5847791514481</v>
+        <v>270.4215452214224</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1711,19 +1711,19 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>55.0403165073856</v>
+        <v>55.22059689088048</v>
       </c>
       <c r="B62">
         <v>2019</v>
       </c>
       <c r="C62">
-        <v>7.802121874098042</v>
+        <v>7.915154224402857</v>
       </c>
       <c r="D62">
-        <v>39.74815763415344</v>
+        <v>39.70689461105088</v>
       </c>
       <c r="E62">
-        <v>70.33247538061775</v>
+        <v>70.73429917071007</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1733,19 +1733,19 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>-65.6473910695947</v>
+        <v>-65.4991105497633</v>
       </c>
       <c r="B63">
         <v>2020</v>
       </c>
       <c r="C63">
-        <v>7.802121874098042</v>
+        <v>7.915154224402857</v>
       </c>
       <c r="D63">
-        <v>-80.93954994282686</v>
+        <v>-81.0128128295929</v>
       </c>
       <c r="E63">
-        <v>-50.35523219636254</v>
+        <v>-49.9854082699337</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1755,19 +1755,19 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>211.5809682475768</v>
+        <v>212.6628179520228</v>
       </c>
       <c r="B64">
         <v>2021</v>
       </c>
       <c r="C64">
-        <v>7.802121874098042</v>
+        <v>7.915154224402857</v>
       </c>
       <c r="D64">
-        <v>196.2888093743447</v>
+        <v>197.1491156721932</v>
       </c>
       <c r="E64">
-        <v>226.873127120809</v>
+        <v>228.1765202318524</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
